--- a/[H] Requirements Elicitation/Analysis/Closed nav_distractions Mean Comparisons.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Closed nav_distractions Mean Comparisons.xlsx
@@ -9248,5 +9248,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB08461-73FE-418D-8B87-6AF72A637A38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C99DB44-6121-41B4-824C-2C8065BCBE9A}"/>
 </file>
--- a/[H] Requirements Elicitation/Analysis/Closed nav_distractions Mean Comparisons.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Closed nav_distractions Mean Comparisons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B4843701-A45C-4D34-819A-7F21A3FFC0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2895DFD3-E118-432B-A330-746053FC0AE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Data" sheetId="1" r:id="rId1"/>
@@ -362,6 +362,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,8 +373,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2156,6 +2156,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2423,14 +2427,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="8" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3961,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4055,9 +4059,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4291,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4823,9 +4827,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5278,9 +5282,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5956,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -6097,9 +6101,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6567,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -6697,7 +6701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -6775,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -6916,12 +6920,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6991,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -7281,7 +7285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -7356,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -7551,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -7785,14 +7789,14 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="5" width="21.7109375" style="7" customWidth="1"/>
-    <col min="6" max="8" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="5" width="21.6640625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7842,7 +7846,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7866,7 +7870,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7890,7 +7894,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7914,7 +7918,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7938,7 +7942,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7962,7 +7966,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>0.30317247562390248</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8058,7 @@
         <v>0.30775143089872248</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>5.7181201990141289E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>0.5233528867895737</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>0.26601496543034803</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>0.49527907730143628</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -8236,7 +8240,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -8260,7 +8264,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -8284,7 +8288,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -8308,7 +8312,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -8332,7 +8336,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -8356,7 +8360,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>0.94983654395567885</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>0.50935315528295411</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -8481,7 +8485,7 @@
         <v>0.74107866017895563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>0.61544219657804355</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>0.88288774837129791</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>0.35066956333188054</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -8606,7 +8610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -8630,7 +8634,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8658,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -8678,7 +8682,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8702,7 +8706,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -8726,7 +8730,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -8763,26 +8767,26 @@
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -8799,7 +8803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8818,7 +8822,7 @@
         <v>0.42370626652508497</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8837,7 +8841,7 @@
         <v>0.110700117067249</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>0.61768794735231503</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8875,7 +8879,7 @@
         <v>0.611940355547264</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>0.57173703399356002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8939,94 +8943,94 @@
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
         <v>0.27021950336065231</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>0.31685165691573702</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
         <v>3.7932730511482445E-2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>5.0397879697461297E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>0.23085578505847301</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>0.30544774000094299</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>0.31557132986417286</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>0.35059129990976901</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>0.37781060489887619</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>0.442651374875068</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>0.88261093507369759</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9036,6 +9040,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6a03bd9-b31b-493a-b31e-bb4432e88c75" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e881998-9419-4d13-b84d-721ac971c709">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9044,11 +9059,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="618a17aee6fe21829d83342cfb0aeda2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f381c43000bb8a88d8a6b5bfc4c73959" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9061,10 +9076,13 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9072,7 +9090,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -9107,28 +9125,45 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -9240,6 +9275,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C15270-ADF3-40FA-99EB-96A6E55C947F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A63BA899-8385-45F0-B91C-E0158614C1C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9247,6 +9299,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C99DB44-6121-41B4-824C-2C8065BCBE9A}"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A8C84F-8AE4-4C31-8378-6D120FA7D709}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>